--- a/IBMaug6.xlsx
+++ b/IBMaug6.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
   <si>
     <t>prob</t>
   </si>
@@ -31,6 +31,9 @@
   </si>
   <si>
     <t>C</t>
+  </si>
+  <si>
+    <t>dsfdsdfs</t>
   </si>
 </sst>
 </file>
@@ -412,7 +415,7 @@
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
-    <c:pageSetup/>
+    <c:pageSetup orientation="portrait" horizontalDpi="-4" verticalDpi="-4"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -421,16 +424,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>736600</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
+      <xdr:colOff>38100</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
+      <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -774,10 +777,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P27" sqref="P27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -786,7 +789,7 @@
     <col min="5" max="5" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -797,7 +800,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:8">
       <c r="A2">
         <v>0.01</v>
       </c>
@@ -809,7 +812,7 @@
         <v>9.5617924991195702E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:8">
       <c r="A3">
         <v>0.01</v>
       </c>
@@ -821,7 +824,7 @@
         <v>0.63396765872677108</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:8">
       <c r="A4">
         <v>0.01</v>
       </c>
@@ -833,7 +836,7 @@
         <v>0.99995682875258929</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:8">
       <c r="A5">
         <v>0.01</v>
       </c>
@@ -844,8 +847,11 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="H5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6">
         <v>0.01</v>
       </c>
@@ -857,7 +863,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:8">
       <c r="A7">
         <v>0.01</v>
       </c>
@@ -870,7 +876,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:8">
       <c r="A8">
         <v>0.01</v>
       </c>
@@ -883,7 +889,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:8">
       <c r="A9">
         <v>1E-4</v>
       </c>
@@ -895,7 +901,7 @@
         <v>9.9955011997876486E-4</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:8">
       <c r="A10">
         <v>1E-4</v>
       </c>
@@ -907,7 +913,7 @@
         <v>9.9506613086266515E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:8">
       <c r="A11">
         <v>1E-4</v>
       </c>
@@ -919,7 +925,7 @@
         <v>9.516710644143056E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:8">
       <c r="A12">
         <v>1E-4</v>
       </c>
@@ -931,7 +937,7 @@
         <v>0.63213895356697591</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:8">
       <c r="A13">
         <v>1E-4</v>
       </c>
@@ -943,7 +949,7 @@
         <v>0.99995462276604097</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:8">
       <c r="A14">
         <v>1E-4</v>
       </c>
@@ -956,7 +962,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:8">
       <c r="A15">
         <v>1E-4</v>
       </c>
@@ -969,7 +975,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:8">
       <c r="A16">
         <v>9.9999999999999995E-7</v>
       </c>
